--- a/code/data/Bible app.xlsx
+++ b/code/data/Bible app.xlsx
@@ -1358,7 +1358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29:Q35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
